--- a/data/trans_orig/CAGE-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6565</v>
+        <v>6602</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006918988326296647</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02404618913620925</v>
+        <v>0.02418258347683968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6638</v>
+        <v>6549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003538371366935302</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01243342134662814</v>
+        <v>0.01226833591831864</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5671</v>
+        <v>5643</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003789234750481318</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02174195142919316</v>
+        <v>0.02163556255571755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5600</v>
+        <v>4609</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001851419695534442</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0104889783029671</v>
+        <v>0.008632706619811102</v>
       </c>
     </row>
     <row r="6">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3929</v>
+        <v>4861</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003534670053694203</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01439007872156142</v>
+        <v>0.01780422148927242</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5806</v>
+        <v>4879</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001807630641898991</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01087661449679838</v>
+        <v>0.009140035304909739</v>
       </c>
     </row>
     <row r="7">
@@ -933,7 +933,7 @@
         <v>270156</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>265349</v>
+        <v>264751</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>272081</v>
@@ -942,10 +942,10 @@
         <v>0.9895463416200091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9719377423384482</v>
+        <v>0.9697473362503821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9965971654642631</v>
+        <v>0.9965985671098065</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>244</v>
@@ -954,7 +954,7 @@
         <v>259850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255167</v>
+        <v>255195</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>260838</v>
@@ -963,7 +963,7 @@
         <v>0.9962107652495187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9782580485708083</v>
+        <v>0.9783644374442837</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -975,19 +975,19 @@
         <v>530006</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>525066</v>
+        <v>524298</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>532888</v>
+        <v>532878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9928025782956312</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9835492666131544</v>
+        <v>0.9821116118424126</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9982024353796189</v>
+        <v>0.998183491244172</v>
       </c>
     </row>
     <row r="8">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7092</v>
+        <v>7199</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004147759866935116</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01438417689634319</v>
+        <v>0.01460086226951354</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7147</v>
+        <v>6474</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002051261356975798</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007168177806202565</v>
+        <v>0.006492999459041604</v>
       </c>
     </row>
     <row r="10">
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4525</v>
+        <v>5153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001840800730718148</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009177893842156655</v>
+        <v>0.01045039902584009</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4561</v>
+        <v>4280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0009103621053176119</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004575076263550098</v>
+        <v>0.004293061126187369</v>
       </c>
     </row>
     <row r="11">
@@ -1205,19 +1205,19 @@
         <v>3903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9077</v>
+        <v>9551</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0079160011017184</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002117767523972999</v>
+        <v>0.002083803745164757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01840802089873441</v>
+        <v>0.0193712484447644</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1239,19 +1239,19 @@
         <v>3903</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>944</v>
+        <v>1037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9125</v>
+        <v>9462</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00391483299001379</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0009471236369337049</v>
+        <v>0.001040271532818168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009151755691810674</v>
+        <v>0.009490499786664853</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>486219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>479747</v>
+        <v>480104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>490189</v>
+        <v>490229</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9860954383006283</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9729692631562259</v>
+        <v>0.9736931242223039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9941474018129585</v>
+        <v>0.9942287454872233</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>499</v>
@@ -1302,19 +1302,19 @@
         <v>990168</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>983909</v>
+        <v>983871</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>994146</v>
+        <v>994076</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9931235435476928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9868453610598101</v>
+        <v>0.9868075272525058</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9971135374543093</v>
+        <v>0.9970431556528704</v>
       </c>
     </row>
     <row r="13">
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9333</v>
+        <v>7803</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006790977599260319</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02602226844004118</v>
+        <v>0.02175510334879149</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8731</v>
+        <v>8564</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003336032265756974</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01195794596507232</v>
+        <v>0.01173007203146277</v>
       </c>
     </row>
     <row r="21">
@@ -1779,19 +1779,19 @@
         <v>3574</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9620</v>
+        <v>10379</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009963621653020437</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002767376193758512</v>
+        <v>0.002778509944687678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02682238722102731</v>
+        <v>0.02893716155696121</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8875</v>
+        <v>8587</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007080520616920441</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02389293277047373</v>
+        <v>0.02311696141682497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1821,19 +1821,19 @@
         <v>6204</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2119</v>
+        <v>2243</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14852</v>
+        <v>14734</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008496828937966083</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00290185184746091</v>
+        <v>0.003071556913013075</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02034204614820765</v>
+        <v>0.02018013676411359</v>
       </c>
     </row>
     <row r="22">
@@ -1850,19 +1850,19 @@
         <v>352662</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>345330</v>
+        <v>345753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>356686</v>
+        <v>356731</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9832454007477193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9628041497030125</v>
+        <v>0.9639841321611328</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9944657328916277</v>
+        <v>0.994591685646803</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>382</v>
@@ -1871,7 +1871,7 @@
         <v>368826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>362581</v>
+        <v>362869</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>371456</v>
@@ -1880,7 +1880,7 @@
         <v>0.9929194793830796</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9761070672295261</v>
+        <v>0.9768830385831747</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1892,19 +1892,19 @@
         <v>721488</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>712285</v>
+        <v>712203</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>726614</v>
+        <v>726135</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9881671387962769</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9755631745179434</v>
+        <v>0.9754505573290786</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9951879177047785</v>
+        <v>0.9945330118394798</v>
       </c>
     </row>
     <row r="23">
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5330</v>
+        <v>4973</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004403767247217436</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02621524880015767</v>
+        <v>0.02445865368307782</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5399</v>
+        <v>4536</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002178524327098397</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01313605123068449</v>
+        <v>0.01103743709066972</v>
       </c>
     </row>
     <row r="25">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9882</v>
+        <v>7772</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007983316836591262</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04758615418613434</v>
+        <v>0.03742452619162866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8292</v>
+        <v>8198</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004034005039870513</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0201771336483688</v>
+        <v>0.01994691058181611</v>
       </c>
     </row>
     <row r="27">
@@ -2169,7 +2169,7 @@
         <v>202413</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>197978</v>
+        <v>198335</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>203308</v>
@@ -2178,7 +2178,7 @@
         <v>0.9955962327527825</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9737847511998423</v>
+        <v>0.9755413463169209</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>206010</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>197786</v>
+        <v>199896</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>207668</v>
@@ -2199,7 +2199,7 @@
         <v>0.9920166831634087</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9524138458138657</v>
+        <v>0.9625754738083702</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>408423</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>401663</v>
+        <v>401801</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>410976</v>
@@ -2220,7 +2220,7 @@
         <v>0.9937874706330311</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9773396335896513</v>
+        <v>0.9776750851981605</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10212</v>
+        <v>9527</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009645211057655197</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03771022606754411</v>
+        <v>0.03518014581314902</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8616</v>
+        <v>10519</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004758184680475927</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01569509431358385</v>
+        <v>0.01916120954755782</v>
       </c>
     </row>
     <row r="31">
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6066</v>
+        <v>6981</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.007107863418582399</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0218085409287934</v>
+        <v>0.02509994314981903</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5948</v>
+        <v>7782</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003601405485516083</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0108342787854951</v>
+        <v>0.01417642136929259</v>
       </c>
     </row>
     <row r="32">
@@ -2488,7 +2488,7 @@
         <v>268199</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>260599</v>
+        <v>261284</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>270811</v>
@@ -2497,7 +2497,7 @@
         <v>0.9903547889423449</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9622897739324557</v>
+        <v>0.964819854186851</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>276167</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>272078</v>
+        <v>271163</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>278144</v>
@@ -2518,7 +2518,7 @@
         <v>0.9928921365814176</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9781914590712065</v>
+        <v>0.9749000568501808</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2530,19 +2530,19 @@
         <v>544366</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>537197</v>
+        <v>535633</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>547923</v>
+        <v>547916</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.991640409834008</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9785817291519701</v>
+        <v>0.9757319727632124</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9981206888612255</v>
+        <v>0.9981080549146699</v>
       </c>
     </row>
     <row r="33">
@@ -2728,19 +2728,19 @@
         <v>2800</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6846</v>
+        <v>7741</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.004552184883073444</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.001386115489046725</v>
+        <v>0.001370275354491217</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01113070544161208</v>
+        <v>0.0125869179714823</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -2762,19 +2762,19 @@
         <v>2800</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7367</v>
+        <v>7391</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002233972049737107</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0006819497878339539</v>
+        <v>0.0006767364030124169</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.005878700078544362</v>
+        <v>0.005897442908117942</v>
       </c>
     </row>
     <row r="37">
@@ -2791,19 +2791,19 @@
         <v>612227</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>608181</v>
+        <v>607286</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>614175</v>
+        <v>614184</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9954478151169266</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9888692945583883</v>
+        <v>0.9874130820285177</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9986138845109533</v>
+        <v>0.9986297246455088</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>621</v>
@@ -2825,19 +2825,19 @@
         <v>1250446</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1245879</v>
+        <v>1245855</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1252391</v>
+        <v>1252398</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9977660279502629</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9941212999214551</v>
+        <v>0.9941025570918821</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.999318050212166</v>
+        <v>0.9993232635969876</v>
       </c>
     </row>
     <row r="38">
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>4509</v>
+        <v>3475</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001045258888612988</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.006062173043365324</v>
+        <v>0.004672388312763722</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5128</v>
+        <v>5119</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001298847056352473</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.006545142281398333</v>
+        <v>0.006533563891961832</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>6392</v>
+        <v>6180</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0011753501168596</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.004185430743821642</v>
+        <v>0.004046378469259523</v>
       </c>
     </row>
     <row r="40">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3900</v>
+        <v>4071</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001185717327837146</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005242817595351488</v>
+        <v>0.0054736089210671</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6567</v>
+        <v>5093</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001298847056352473</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.008381460888450064</v>
+        <v>0.006499781151885704</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6579</v>
+        <v>6032</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001243753100818809</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004307739343402754</v>
+        <v>0.003949722480795914</v>
       </c>
     </row>
     <row r="41">
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6063</v>
+        <v>6009</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.002625621272503497</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008151596744431677</v>
+        <v>0.008079344705701753</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6290</v>
+        <v>6529</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.001278672401445315</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004118300413283774</v>
+        <v>0.004274742635998885</v>
       </c>
     </row>
     <row r="42">
@@ -3134,19 +3134,19 @@
         <v>740183</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>735118</v>
+        <v>735742</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>742911</v>
+        <v>742910</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9951434025110464</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9883337175336847</v>
+        <v>0.9891724530155968</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9988113061503502</v>
+        <v>0.9988104142555339</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>743</v>
@@ -3155,7 +3155,7 @@
         <v>781476</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>776365</v>
+        <v>777360</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>783511</v>
@@ -3164,7 +3164,7 @@
         <v>0.9974023058872951</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9908790012800308</v>
+        <v>0.9921495446636378</v>
       </c>
       <c r="P42" s="6" t="n">
         <v>1</v>
@@ -3176,19 +3176,19 @@
         <v>1521658</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1514726</v>
+        <v>1514403</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1524734</v>
+        <v>1524938</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9963022243808762</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9917634752824055</v>
+        <v>0.9915519451511539</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.998315880708277</v>
+        <v>0.9984492758476351</v>
       </c>
     </row>
     <row r="43">
@@ -3280,19 +3280,19 @@
         <v>5607</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>12258</v>
+        <v>11785</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001711221020857152</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0007677878445496275</v>
+        <v>0.0007691671949316924</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003741180808253826</v>
+        <v>0.003596642499711688</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>5110</v>
+        <v>5558</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0003011546389197376</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.001512321003551215</v>
+        <v>0.001644665354323607</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -3322,19 +3322,19 @@
         <v>6625</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2893</v>
+        <v>2882</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>13469</v>
+        <v>13411</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.000995313838218762</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0004346647997306016</v>
+        <v>0.0004330596159683517</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.002023702441272536</v>
+        <v>0.002014935057598716</v>
       </c>
     </row>
     <row r="45">
@@ -3351,19 +3351,19 @@
         <v>6837</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2663</v>
+        <v>2353</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>14164</v>
+        <v>14552</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.002086754165561299</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0008128479374787167</v>
+        <v>0.0007182079906879675</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.004322868209004088</v>
+        <v>0.004441316367597334</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>7027</v>
+        <v>7003</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0005936433697329825</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.002079455417497298</v>
+        <v>0.002072526794552836</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>8</v>
@@ -3393,19 +3393,19 @@
         <v>8843</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>4224</v>
+        <v>3840</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>17253</v>
+        <v>17796</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001328684363386653</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0006346029744560339</v>
+        <v>0.0005770171391868826</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.002592202561469821</v>
+        <v>0.002673775610229689</v>
       </c>
     </row>
     <row r="46">
@@ -3422,19 +3422,19 @@
         <v>13194</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7554</v>
+        <v>7181</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22219</v>
+        <v>22249</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.00402695341232436</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002305470451890319</v>
+        <v>0.002191778010347999</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.006781217949503548</v>
+        <v>0.006790479631766741</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -3443,19 +3443,19 @@
         <v>6265</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>14055</v>
+        <v>14254</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.001853987833040277</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0006282232769482915</v>
+        <v>0.0006286506120124565</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004159190462143992</v>
+        <v>0.004218233129632353</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>18</v>
@@ -3464,19 +3464,19 @@
         <v>19459</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>12138</v>
+        <v>11845</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>31176</v>
+        <v>30188</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.002923713390604226</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001823644257568388</v>
+        <v>0.001779630587786393</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.004684116185186301</v>
+        <v>0.00453562629275265</v>
       </c>
     </row>
     <row r="47">
@@ -3493,19 +3493,19 @@
         <v>3250904</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3289</v>
@@ -3514,19 +3514,19 @@
         <v>3369908</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6478</v>
@@ -3535,19 +3535,19 @@
         <v>6620814</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="48">
@@ -3883,19 +3883,19 @@
         <v>4627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1639</v>
+        <v>1746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9892</v>
+        <v>10937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01569908121972832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005560687589877569</v>
+        <v>0.005923865429873534</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03356227480348904</v>
+        <v>0.03710615484226873</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3917,19 +3917,19 @@
         <v>4627</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1745</v>
+        <v>1651</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10472</v>
+        <v>10840</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007950603431059824</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00299890352122225</v>
+        <v>0.002837175710645424</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01799445400940877</v>
+        <v>0.01862682262980216</v>
       </c>
     </row>
     <row r="5">
@@ -3946,19 +3946,19 @@
         <v>8868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4465</v>
+        <v>4296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16651</v>
+        <v>17989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03008808336036819</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0151502564843137</v>
+        <v>0.01457686005599354</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05649572819935871</v>
+        <v>0.06103259946886689</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3980,19 +3980,19 @@
         <v>8868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4370</v>
+        <v>4033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17421</v>
+        <v>17239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01523773368968513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007509614236838307</v>
+        <v>0.006930600533307915</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02993452582526347</v>
+        <v>0.02962159165773998</v>
       </c>
     </row>
     <row r="6">
@@ -4009,19 +4009,19 @@
         <v>9380</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4517</v>
+        <v>4755</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17955</v>
+        <v>17802</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03182438446557096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01532708077366056</v>
+        <v>0.0161330692890909</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06091992090982144</v>
+        <v>0.06039939036191192</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5178</v>
+        <v>5130</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00352293384010058</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01802786427520261</v>
+        <v>0.01785916058212448</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -4051,19 +4051,19 @@
         <v>10392</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4930</v>
+        <v>4998</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19242</v>
+        <v>18835</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01785584971571696</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008470721551293617</v>
+        <v>0.008587568433047883</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03306281771336553</v>
+        <v>0.03236397633323024</v>
       </c>
     </row>
     <row r="7">
@@ -4080,19 +4080,19 @@
         <v>271863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>260214</v>
+        <v>260861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>279257</v>
+        <v>279898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9223884509543325</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.882866319506678</v>
+        <v>0.8850612479082699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9474768546068096</v>
+        <v>0.9496487896496569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -4101,7 +4101,7 @@
         <v>286233</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>282067</v>
+        <v>282115</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>287245</v>
@@ -4110,7 +4110,7 @@
         <v>0.9964770661598994</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9819721357247974</v>
+        <v>0.9821408394178756</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -4122,19 +4122,19 @@
         <v>558096</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>546857</v>
+        <v>547082</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>566420</v>
+        <v>567239</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9589558131635381</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9396443237402459</v>
+        <v>0.940031421258362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9732590453089764</v>
+        <v>0.9746658343473916</v>
       </c>
     </row>
     <row r="8">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12757</v>
+        <v>11772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006410183413954139</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0252354296424982</v>
+        <v>0.02328617367404338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12104</v>
+        <v>12897</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003148301565602417</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01175919490215623</v>
+        <v>0.01252988049116655</v>
       </c>
     </row>
     <row r="11">
@@ -4336,19 +4336,19 @@
         <v>8101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3858</v>
+        <v>3863</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15589</v>
+        <v>15716</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01602424936747236</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007631562060433482</v>
+        <v>0.007641224429422689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03083798944877504</v>
+        <v>0.03108784145212852</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -4370,19 +4370,19 @@
         <v>8101</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3830</v>
+        <v>3851</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15108</v>
+        <v>15135</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007870160042752516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003720888137512862</v>
+        <v>0.003741889616566503</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01467816790057869</v>
+        <v>0.01470439768650434</v>
       </c>
     </row>
     <row r="12">
@@ -4399,19 +4399,19 @@
         <v>494186</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>485222</v>
+        <v>481978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>499976</v>
+        <v>499327</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9775655672185735</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9598333158364175</v>
+        <v>0.9534160134484816</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9890185274893545</v>
+        <v>0.987735994575174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>480</v>
@@ -4433,19 +4433,19 @@
         <v>1017951</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1007948</v>
+        <v>1007800</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1023795</v>
+        <v>1023409</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.988981538391645</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.979262948619</v>
+        <v>0.9791194672417617</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9946595172147811</v>
+        <v>0.9942843992563726</v>
       </c>
     </row>
     <row r="13">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4927</v>
+        <v>5507</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002890946751492854</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01444867321241133</v>
+        <v>0.01615004175167643</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4929</v>
+        <v>4965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001482365166064988</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007410604393866199</v>
+        <v>0.007464828980228824</v>
       </c>
     </row>
     <row r="17">
@@ -4707,7 +4707,7 @@
         <v>340034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>336093</v>
+        <v>335513</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>341020</v>
@@ -4716,7 +4716,7 @@
         <v>0.9971090532485072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9855513267875887</v>
+        <v>0.9838499582483249</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4728,7 +4728,7 @@
         <v>664080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>660137</v>
+        <v>660101</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>665066</v>
@@ -4737,7 +4737,7 @@
         <v>0.998517634833935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9925893956061336</v>
+        <v>0.9925351710197712</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4605</v>
+        <v>4646</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.002470192508632416</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01231281549708568</v>
+        <v>0.01242411852771794</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4624</v>
+        <v>5291</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001210863449965968</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006061163597259849</v>
+        <v>0.006934552083272778</v>
       </c>
     </row>
     <row r="22">
@@ -4989,7 +4989,7 @@
         <v>373058</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>369377</v>
+        <v>369336</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>373982</v>
@@ -4998,7 +4998,7 @@
         <v>0.9975298074913675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9876871845029144</v>
+        <v>0.987575881472282</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>762009</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>758309</v>
+        <v>757642</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>762933</v>
@@ -5032,7 +5032,7 @@
         <v>0.998789136550034</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9939388364027402</v>
+        <v>0.9930654479167267</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7034</v>
+        <v>7671</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01021339663955898</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03308192111958062</v>
+        <v>0.03607742994324556</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6831</v>
+        <v>7300</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005024310393772363</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0158050809815713</v>
+        <v>0.01688966221726557</v>
       </c>
     </row>
     <row r="25">
@@ -5237,19 +5237,19 @@
         <v>3945</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9293</v>
+        <v>8901</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01855263815892599</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004825475540933637</v>
+        <v>0.004720735630874712</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04370640231850054</v>
+        <v>0.04186333301090821</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5271,19 +5271,19 @@
         <v>3945</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8903</v>
+        <v>9945</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009126661386354875</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002403514863639256</v>
+        <v>0.002419979329004594</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02059788622195945</v>
+        <v>0.02300877218413134</v>
       </c>
     </row>
     <row r="27">
@@ -5300,19 +5300,19 @@
         <v>206502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>199524</v>
+        <v>199621</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>210334</v>
+        <v>209863</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9712339652015151</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9384158658676786</v>
+        <v>0.9388718854921838</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9892588958803092</v>
+        <v>0.9870434713971935</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>212</v>
@@ -5334,19 +5334,19 @@
         <v>426093</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>419902</v>
+        <v>419181</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>429901</v>
+        <v>429755</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9858490282198727</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9715258711115689</v>
+        <v>0.9698569878572018</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9946608366446725</v>
+        <v>0.9943225142972303</v>
       </c>
     </row>
     <row r="28">
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6849</v>
+        <v>6930</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003846115388084151</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02499680152282257</v>
+        <v>0.02529236775045763</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5292</v>
+        <v>6210</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001902057267207694</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009552100773413747</v>
+        <v>0.01120983274559531</v>
       </c>
     </row>
     <row r="30">
@@ -5595,7 +5595,7 @@
         <v>272927</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>267132</v>
+        <v>267051</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>273981</v>
@@ -5604,7 +5604,7 @@
         <v>0.9961538846119159</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9750031984771768</v>
+        <v>0.9747076322495424</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>552958</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>548720</v>
+        <v>547802</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>554012</v>
@@ -5638,7 +5638,7 @@
         <v>0.9980979427327923</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9904478992265863</v>
+        <v>0.9887901672544046</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5780,19 +5780,19 @@
         <v>4955</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1058</v>
+        <v>1762</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13585</v>
+        <v>14378</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.007475338448242295</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001596350276178045</v>
+        <v>0.002658997918614429</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02049682746373418</v>
+        <v>0.02169367736346454</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5433</v>
+        <v>6033</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.001443561101748509</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.007830230794375937</v>
+        <v>0.008695509294877007</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -5822,19 +5822,19 @@
         <v>5956</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1906</v>
+        <v>2014</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15742</v>
+        <v>14716</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.004390390698735544</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001404742610136578</v>
+        <v>0.001484258208388721</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01160346625245118</v>
+        <v>0.01084731481950312</v>
       </c>
     </row>
     <row r="36">
@@ -5851,19 +5851,19 @@
         <v>6846</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2937</v>
+        <v>2969</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13587</v>
+        <v>13075</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01032893310958981</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.004430926199623804</v>
+        <v>0.004479600090855337</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02050006834174371</v>
+        <v>0.01972753802380367</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6273</v>
+        <v>6813</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001626715479244024</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.00904058685393181</v>
+        <v>0.009818845009895964</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -5893,19 +5893,19 @@
         <v>7975</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15779</v>
+        <v>15074</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005878190790651518</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002874002538774975</v>
+        <v>0.002874833388170617</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0116311984019313</v>
+        <v>0.01111124960041214</v>
       </c>
     </row>
     <row r="37">
@@ -5922,19 +5922,19 @@
         <v>650988</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>641649</v>
+        <v>642038</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>657114</v>
+        <v>656691</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9821957284421678</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9681061324097044</v>
+        <v>0.968693174720841</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.991439131182651</v>
+        <v>0.9908012354465546</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>634</v>
@@ -5943,7 +5943,7 @@
         <v>691723</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>687077</v>
+        <v>686992</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>693853</v>
@@ -5952,7 +5952,7 @@
         <v>0.9969297234190074</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9902344172315689</v>
+        <v>0.9901119499103768</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -5964,19 +5964,19 @@
         <v>1342710</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1331905</v>
+        <v>1331950</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1348750</v>
+        <v>1348546</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.989731418510613</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9817666549609136</v>
+        <v>0.9818000400363125</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9941831848939888</v>
+        <v>0.9940329323530781</v>
       </c>
     </row>
     <row r="38">
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5134</v>
+        <v>5813</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001321485584867323</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.006589228761754046</v>
+        <v>0.007461321991054723</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5749</v>
+        <v>5215</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0006422947166690117</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003586697393297821</v>
+        <v>0.003253558069417637</v>
       </c>
     </row>
     <row r="40">
@@ -6131,19 +6131,19 @@
         <v>4121</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9540</v>
+        <v>10204</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005289158776333348</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001353178920551888</v>
+        <v>0.001327062313715496</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0122447112403837</v>
+        <v>0.01309687508077192</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -6165,19 +6165,19 @@
         <v>4121</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10701</v>
+        <v>10363</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002570742183316002</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.000644519688848697</v>
+        <v>0.0006463131537433479</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006675709603654976</v>
+        <v>0.006465115593621266</v>
       </c>
     </row>
     <row r="41">
@@ -6194,19 +6194,19 @@
         <v>6565</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1912</v>
+        <v>1989</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17665</v>
+        <v>17532</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008426298959516024</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002453571441205204</v>
+        <v>0.002552577990544401</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02267391218109609</v>
+        <v>0.02250338503560612</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4970</v>
+        <v>5169</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001208996498941607</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.00603297902624537</v>
+        <v>0.006274012565831858</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -6236,19 +6236,19 @@
         <v>7561</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2035</v>
+        <v>2001</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>18397</v>
+        <v>18116</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004716893438653306</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001269324863412076</v>
+        <v>0.001248291666564015</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01147715401002907</v>
+        <v>0.01130173432096699</v>
       </c>
     </row>
     <row r="42">
@@ -6265,19 +6265,19 @@
         <v>767383</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>756661</v>
+        <v>755417</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>773893</v>
+        <v>773372</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9849630566792833</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9712010363146354</v>
+        <v>0.9696042973534388</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9933195306385846</v>
+        <v>0.992650298285992</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>756</v>
@@ -6286,7 +6286,7 @@
         <v>822857</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>818883</v>
+        <v>818684</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>823853</v>
@@ -6295,7 +6295,7 @@
         <v>0.9987910035010584</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9939670209737547</v>
+        <v>0.9937259874341698</v>
       </c>
       <c r="P42" s="6" t="n">
         <v>1</v>
@@ -6307,19 +6307,19 @@
         <v>1590240</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1578817</v>
+        <v>1578911</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1596758</v>
+        <v>1596737</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9920700696613617</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.984943835209854</v>
+        <v>0.9850028333552432</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.996136281624869</v>
+        <v>0.9961234420803319</v>
       </c>
     </row>
     <row r="43">
@@ -6411,19 +6411,19 @@
         <v>8882</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4274</v>
+        <v>3984</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16434</v>
+        <v>16094</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.002591938026770481</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001247167022975168</v>
+        <v>0.001162681224048113</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.004795654779969259</v>
+        <v>0.004696432506523105</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -6445,19 +6445,19 @@
         <v>8882</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3950</v>
+        <v>3964</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>16468</v>
+        <v>15948</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.001271565727204031</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0005654977235097497</v>
+        <v>0.0005674932246521851</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.002357609109787084</v>
+        <v>0.002283162919525988</v>
       </c>
     </row>
     <row r="45">
@@ -6474,19 +6474,19 @@
         <v>21184</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>13017</v>
+        <v>12688</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>34451</v>
+        <v>34721</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.006181888456938393</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.003798598073510594</v>
+        <v>0.003702676801863724</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.010053404588765</v>
+        <v>0.0101323989171328</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0002814874105467052</v>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.001410916277789446</v>
+        <v>0.001407866539182848</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>20</v>
@@ -6516,19 +6516,19 @@
         <v>22186</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>12893</v>
+        <v>13877</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>35887</v>
+        <v>34482</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.003176135226142356</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.001845720271436359</v>
+        <v>0.001986682677249159</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.005137724026621743</v>
+        <v>0.004936494158860018</v>
       </c>
     </row>
     <row r="46">
@@ -6545,19 +6545,19 @@
         <v>35760</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>23775</v>
+        <v>24594</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>50220</v>
+        <v>50905</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01043539576819881</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006937864433898318</v>
+        <v>0.007177121022651343</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01465522938791896</v>
+        <v>0.01485518564109051</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -6566,19 +6566,19 @@
         <v>4123</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1125</v>
+        <v>1014</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>10952</v>
+        <v>9979</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.001158570717232079</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0003160242119614662</v>
+        <v>0.0002850363455963488</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.003077890316873893</v>
+        <v>0.002804451905835558</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>37</v>
@@ -6587,19 +6587,19 @@
         <v>39882</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>29083</v>
+        <v>27708</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>57232</v>
+        <v>55717</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.005709641256050036</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00416361295760329</v>
+        <v>0.003966677674610943</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.008193427952015638</v>
+        <v>0.007976603190066951</v>
       </c>
     </row>
     <row r="47">
@@ -6616,19 +6616,19 @@
         <v>3360953</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3341639</v>
+        <v>3341850</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3376783</v>
+        <v>3376281</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9807907777480923</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9751544054652108</v>
+        <v>0.975215955738316</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9854101113186752</v>
+        <v>0.9852638338121401</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3293</v>
@@ -6637,19 +6637,19 @@
         <v>3553185</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3545967</v>
+        <v>3547047</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3556316</v>
+        <v>3556312</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9985599418722212</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9965315229906108</v>
+        <v>0.996834959887961</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9994398892859592</v>
+        <v>0.9994388895881863</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6441</v>
@@ -6658,19 +6658,19 @@
         <v>6914138</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6891560</v>
+        <v>6894231</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6930186</v>
+        <v>6931591</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9898426577906035</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9866103325868643</v>
+        <v>0.986992773973325</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9921400716375637</v>
+        <v>0.9923412443711332</v>
       </c>
     </row>
     <row r="48">
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6551</v>
+        <v>7375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00729627096910749</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02229994269089448</v>
+        <v>0.02510657956863888</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6949</v>
+        <v>7221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00701841465354588</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02406917481961385</v>
+        <v>0.02501078739075192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -7048,19 +7048,19 @@
         <v>4170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10259</v>
+        <v>10246</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007158549235683468</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001872036128694454</v>
+        <v>0.001810162066323233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01761247403113686</v>
+        <v>0.0175916026713633</v>
       </c>
     </row>
     <row r="5">
@@ -7077,19 +7077,19 @@
         <v>4565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10730</v>
+        <v>10855</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01554044152900989</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004456445776609704</v>
+        <v>0.004404196966145898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03652511351335319</v>
+        <v>0.03695204647681797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -7111,19 +7111,19 @@
         <v>4565</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11568</v>
+        <v>10409</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007837695808712105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002241861174087353</v>
+        <v>0.002218238886075639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01986002875589468</v>
+        <v>0.01787057937675435</v>
       </c>
     </row>
     <row r="6">
@@ -7140,19 +7140,19 @@
         <v>8355</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3048</v>
+        <v>3794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15716</v>
+        <v>17694</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02844061125835829</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01037628326057305</v>
+        <v>0.01291474415168643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05350048997405037</v>
+        <v>0.06023412677990161</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -7161,19 +7161,19 @@
         <v>4505</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1634</v>
+        <v>1748</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12625</v>
+        <v>11902</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01560521758459115</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00565920633151055</v>
+        <v>0.006055109262642661</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04372892916037367</v>
+        <v>0.04122712551635282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -7182,19 +7182,19 @@
         <v>12860</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6813</v>
+        <v>6455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23398</v>
+        <v>22683</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0220786444182021</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01169610031985577</v>
+        <v>0.01108272024937177</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04017006157965636</v>
+        <v>0.03894248693126505</v>
       </c>
     </row>
     <row r="7">
@@ -7211,19 +7211,19 @@
         <v>278698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>269678</v>
+        <v>268482</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285706</v>
+        <v>285604</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9487226762435244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9180200803071402</v>
+        <v>0.9139464902378706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9725812941652455</v>
+        <v>0.9722337234233885</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>271</v>
@@ -7232,19 +7232,19 @@
         <v>282171</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273789</v>
+        <v>274585</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>285968</v>
+        <v>285882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.977376367761863</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9483416837445244</v>
+        <v>0.9510989129277878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9905262767488624</v>
+        <v>0.9902293327284668</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>524</v>
@@ -7253,19 +7253,19 @@
         <v>560869</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>548930</v>
+        <v>549653</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>569047</v>
+        <v>569321</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9629251105374024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9424272450320926</v>
+        <v>0.9436693234294048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9769658171411795</v>
+        <v>0.9774355390018753</v>
       </c>
     </row>
     <row r="8">
@@ -7451,19 +7451,19 @@
         <v>4364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10003</v>
+        <v>10763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008683834491445119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002243058897384253</v>
+        <v>0.002237036068909327</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01990438071327261</v>
+        <v>0.02141642368383531</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6081</v>
+        <v>5490</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002120210296058709</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01162534769078379</v>
+        <v>0.01049487945234651</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -7493,19 +7493,19 @@
         <v>5473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2144</v>
+        <v>2135</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12081</v>
+        <v>12078</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005336400706544087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002089944853155507</v>
+        <v>0.00208124123124295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01177829639397966</v>
+        <v>0.0117763155859084</v>
       </c>
     </row>
     <row r="12">
@@ -7522,19 +7522,19 @@
         <v>498211</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>492572</v>
+        <v>491812</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>501448</v>
+        <v>501451</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9913161655085548</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9800956192867273</v>
+        <v>0.9785835763161645</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9977569411026157</v>
+        <v>0.9977629639310907</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>483</v>
@@ -7543,7 +7543,7 @@
         <v>521975</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>517003</v>
+        <v>517594</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>523084</v>
@@ -7552,7 +7552,7 @@
         <v>0.9978797897039413</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9883746523092162</v>
+        <v>0.989505120547654</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -7564,19 +7564,19 @@
         <v>1020186</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1013578</v>
+        <v>1013581</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1023515</v>
+        <v>1023524</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9946635992934559</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9882217036060204</v>
+        <v>0.9882236844140916</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9979100551468445</v>
+        <v>0.997918758768757</v>
       </c>
     </row>
     <row r="13">
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5207</v>
+        <v>4042</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00271570342380913</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01634397076481859</v>
+        <v>0.01268803031430195</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4372</v>
+        <v>4893</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00132106031881698</v>
@@ -7808,7 +7808,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006676686271368102</v>
+        <v>0.007471308274932481</v>
       </c>
     </row>
     <row r="17">
@@ -7825,7 +7825,7 @@
         <v>317700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>313358</v>
+        <v>314523</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>318565</v>
@@ -7834,7 +7834,7 @@
         <v>0.9972842965761909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9836560292351815</v>
+        <v>0.9873119696856976</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>654009</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>650502</v>
+        <v>649981</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>654874</v>
@@ -7868,7 +7868,7 @@
         <v>0.998678939681183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9933233137286318</v>
+        <v>0.9925286917250667</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6381</v>
+        <v>6193</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00342538243962845</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01724845719647991</v>
+        <v>0.01673961767490601</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6392</v>
+        <v>6345</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001673520244106185</v>
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008440670654490544</v>
+        <v>0.008379378071734231</v>
       </c>
     </row>
     <row r="21">
@@ -8120,7 +8120,7 @@
         <v>368697</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>363583</v>
+        <v>363771</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>369964</v>
@@ -8129,7 +8129,7 @@
         <v>0.9965746175603716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9827515428035201</v>
+        <v>0.9832603823250924</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -8154,7 +8154,7 @@
         <v>755980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>750855</v>
+        <v>750902</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>757247</v>
@@ -8163,7 +8163,7 @@
         <v>0.9983264797558938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9915593293455094</v>
+        <v>0.9916206219282658</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4807</v>
+        <v>5497</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004547360878290461</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02275808319961027</v>
+        <v>0.02602569100017155</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5091</v>
+        <v>5248</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002234714356285952</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01184367183549232</v>
+        <v>0.01220912722304968</v>
       </c>
     </row>
     <row r="26">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6464</v>
+        <v>6571</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008977733444383273</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03060283344944182</v>
+        <v>0.03110733153243911</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5733</v>
+        <v>6470</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004411937022824149</v>
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01333772476615728</v>
+        <v>0.01505207999458533</v>
       </c>
     </row>
     <row r="27">
@@ -8431,19 +8431,19 @@
         <v>208364</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>203594</v>
+        <v>203532</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>210287</v>
+        <v>210294</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9864749056773263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9638919514901395</v>
+        <v>0.963595056046526</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9955785872030996</v>
+        <v>0.9956109221153502</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>223</v>
@@ -8465,19 +8465,19 @@
         <v>426951</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>422209</v>
+        <v>421998</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>428872</v>
+        <v>428870</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9933533486208899</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9823197083763526</v>
+        <v>0.9818296118266819</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9978213066433024</v>
+        <v>0.9978168516419983</v>
       </c>
     </row>
     <row r="28">
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5931</v>
+        <v>6111</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007266066029983836</v>
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02254065275644359</v>
+        <v>0.02322526714371699</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5206</v>
+        <v>4681</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003446089199000437</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01906177726363596</v>
+        <v>0.01713861205788479</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -8658,19 +8658,19 @@
         <v>2853</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7696</v>
+        <v>7624</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005320487807993302</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001676113701993701</v>
+        <v>0.001680559707694946</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01435109538504556</v>
+        <v>0.01421843327195159</v>
       </c>
     </row>
     <row r="31">
@@ -8734,7 +8734,7 @@
         <v>261211</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>257192</v>
+        <v>257012</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>263123</v>
@@ -8743,7 +8743,7 @@
         <v>0.9927339339700162</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9774593472435568</v>
+        <v>0.976774732856283</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -8755,7 +8755,7 @@
         <v>272174</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>267909</v>
+        <v>268434</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>273115</v>
@@ -8764,7 +8764,7 @@
         <v>0.9965539108009995</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9809382227363647</v>
+        <v>0.9828613879421152</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -8776,19 +8776,19 @@
         <v>533385</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>528542</v>
+        <v>528614</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>535339</v>
+        <v>535337</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9946795121920067</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9856489046149545</v>
+        <v>0.9857815667280484</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9983238862980063</v>
+        <v>0.998319440292305</v>
       </c>
     </row>
     <row r="33">
@@ -8927,19 +8927,19 @@
         <v>3235</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8791</v>
+        <v>8720</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.004927800705380068</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00161014229392196</v>
+        <v>0.001602160525850276</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01338927384255931</v>
+        <v>0.01328182062887777</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -8961,19 +8961,19 @@
         <v>3235</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8630</v>
+        <v>8573</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.002400402245196709</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0007821752935293962</v>
+        <v>0.0007809236605794234</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.006402658209917043</v>
+        <v>0.00636045727134794</v>
       </c>
     </row>
     <row r="36">
@@ -8990,19 +8990,19 @@
         <v>14054</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7985</v>
+        <v>7307</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24936</v>
+        <v>25399</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02140513241988735</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01216220450594459</v>
+        <v>0.01112878980546983</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03797997541806288</v>
+        <v>0.03868487471884523</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -9011,19 +9011,19 @@
         <v>6109</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2674</v>
+        <v>2096</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13096</v>
+        <v>12313</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.008837699357742923</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003868027925278567</v>
+        <v>0.003031585236040427</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01894381009868475</v>
+        <v>0.01781210699409608</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -9032,19 +9032,19 @@
         <v>20163</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12046</v>
+        <v>12397</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>31763</v>
+        <v>31610</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01495947585446595</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.008937278005758638</v>
+        <v>0.009197380309379565</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02356528463250557</v>
+        <v>0.02345220282243619</v>
       </c>
     </row>
     <row r="37">
@@ -9061,19 +9061,19 @@
         <v>639269</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>628307</v>
+        <v>627435</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>645925</v>
+        <v>646823</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9736670668747326</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9569716671315459</v>
+        <v>0.9556436261797898</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9838049694234812</v>
+        <v>0.9851722075549271</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>640</v>
@@ -9082,19 +9082,19 @@
         <v>685185</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>678198</v>
+        <v>678981</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>688620</v>
+        <v>689198</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9911623006422571</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9810561899013149</v>
+        <v>0.9821878930059036</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9961319720747169</v>
+        <v>0.9969684147639593</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1205</v>
@@ -9103,19 +9103,19 @@
         <v>1324453</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1312276</v>
+        <v>1312949</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1332889</v>
+        <v>1333070</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9826401219003373</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9736052645359254</v>
+        <v>0.9741049180498523</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9888985301708234</v>
+        <v>0.9890331235890365</v>
       </c>
     </row>
     <row r="38">
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4842</v>
+        <v>3723</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001182707560010238</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.006219147192405188</v>
+        <v>0.004782237676723648</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4610</v>
+        <v>4621</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0005738189731105829</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.002873005833558592</v>
+        <v>0.002879516552210189</v>
       </c>
     </row>
     <row r="41">
@@ -9317,19 +9317,19 @@
         <v>4242</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1135</v>
+        <v>1033</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10518</v>
+        <v>10438</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.005447851260257324</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001457857276364572</v>
+        <v>0.00132650137606176</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01350904575722209</v>
+        <v>0.0134069177445796</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7690</v>
+        <v>6566</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00265905305952324</v>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.009308567229882872</v>
+        <v>0.007947470439238224</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -9359,19 +9359,19 @@
         <v>6438</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2176</v>
+        <v>2274</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13249</v>
+        <v>13178</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004012105474055891</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001355757684025005</v>
+        <v>0.001417151607217886</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008256157988321484</v>
+        <v>0.008211577793986808</v>
       </c>
     </row>
     <row r="42">
@@ -9388,19 +9388,19 @@
         <v>773421</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>767044</v>
+        <v>767172</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>776555</v>
+        <v>776665</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9933694411797325</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9851791358322822</v>
+        <v>0.9853435577632454</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9973946697874116</v>
+        <v>0.9975370740365923</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>753</v>
@@ -9409,7 +9409,7 @@
         <v>823970</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>818477</v>
+        <v>819601</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>826167</v>
@@ -9418,7 +9418,7 @@
         <v>0.9973409469404768</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9906914327701171</v>
+        <v>0.9920525295607617</v>
       </c>
       <c r="P42" s="6" t="n">
         <v>1</v>
@@ -9430,19 +9430,19 @@
         <v>1597391</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1590168</v>
+        <v>1589522</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1601813</v>
+        <v>1601578</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9954140755528336</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9909129899965121</v>
+        <v>0.9905109325604777</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9981700536577955</v>
+        <v>0.9980231307159302</v>
       </c>
     </row>
     <row r="43">
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>6475</v>
+        <v>7475</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0006314492132601611</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.001907526963194628</v>
+        <v>0.002202276420395223</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>7463</v>
+        <v>7168</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0005716499782607189</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.002105524775653996</v>
+        <v>0.002022176629541527</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -9576,19 +9576,19 @@
         <v>4170</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>10626</v>
+        <v>9485</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0006009024214219004</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0001577281592101912</v>
+        <v>0.000152503519799868</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.001531387431084885</v>
+        <v>0.001366963599020058</v>
       </c>
     </row>
     <row r="45">
@@ -9605,19 +9605,19 @@
         <v>12861</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>7280</v>
+        <v>6885</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>21903</v>
+        <v>22181</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.003788953006902634</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.002144881730107002</v>
+        <v>0.002028247158460389</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.006452912136269218</v>
+        <v>0.006534546236013948</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>3786</v>
+        <v>4852</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0002655289868096186</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.001068199229452239</v>
+        <v>0.001368996997113917</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>13</v>
@@ -9647,19 +9647,19 @@
         <v>13802</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>7785</v>
+        <v>7442</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>23908</v>
+        <v>22065</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001989108910222913</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.001121955974818733</v>
+        <v>0.001072434428277242</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.003445485332045474</v>
+        <v>0.003179856722517684</v>
       </c>
     </row>
     <row r="46">
@@ -9676,19 +9676,19 @@
         <v>33776</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>23918</v>
+        <v>22353</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>49034</v>
+        <v>47352</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.009950579434444487</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007046403150402105</v>
+        <v>0.00658536064844448</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01444586954956503</v>
+        <v>0.01395026905707022</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>13</v>
@@ -9697,19 +9697,19 @@
         <v>13921</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7924</v>
+        <v>7581</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>23545</v>
+        <v>23448</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003927331547081767</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002235430257635697</v>
+        <v>0.002138692115668889</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.00664256711897303</v>
+        <v>0.006615341974149688</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>43</v>
@@ -9718,19 +9718,19 @@
         <v>47696</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>34715</v>
+        <v>35239</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>64924</v>
+        <v>63072</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006873769180814496</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005003026744728696</v>
+        <v>0.005078494754021155</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.009356601310483147</v>
+        <v>0.009089658460034568</v>
       </c>
     </row>
     <row r="47">
@@ -9747,19 +9747,19 @@
         <v>3345570</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3329259</v>
+        <v>3328835</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3356989</v>
+        <v>3358636</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9856290183453927</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9808236086419353</v>
+        <v>0.980698713883927</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9889933172376272</v>
+        <v>0.9894785314204703</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3322</v>
@@ -9768,19 +9768,19 @@
         <v>3527654</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3517720</v>
+        <v>3517667</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3534177</v>
+        <v>3534405</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9952354894878479</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9924328609319597</v>
+        <v>0.992417845582704</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9970758605665394</v>
+        <v>0.9971401232522097</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6509</v>
@@ -9789,19 +9789,19 @@
         <v>6873224</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6854774</v>
+        <v>6854789</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6888499</v>
+        <v>6887256</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9905362194875407</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9878773575549683</v>
+        <v>0.9878794152594558</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9927376228029611</v>
+        <v>0.9925584047515041</v>
       </c>
     </row>
     <row r="48">
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6856</v>
+        <v>6065</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007275527621368299</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04035152497676863</v>
+        <v>0.0356960094437038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -10221,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6191</v>
+        <v>6301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004627345362245208</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02317737952004429</v>
+        <v>0.02358807037118717</v>
       </c>
     </row>
     <row r="6">
@@ -10247,19 +10247,19 @@
         <v>3684</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11191</v>
+        <v>9876</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02168297874279361</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004262763816897126</v>
+        <v>0.004244992668567272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06586988538888533</v>
+        <v>0.05812908375775037</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -10281,19 +10281,19 @@
         <v>3684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11211</v>
+        <v>10857</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01379070169845051</v>
+        <v>0.01379070169845052</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002718309205283277</v>
+        <v>0.002667225450154007</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0419667729900907</v>
+        <v>0.04064263613463728</v>
       </c>
     </row>
     <row r="7">
@@ -10310,19 +10310,19 @@
         <v>164979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>157562</v>
+        <v>157689</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>168662</v>
+        <v>168632</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9710414936358381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9273879493099619</v>
+        <v>0.9281310785634652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.992719838676968</v>
+        <v>0.992542431053249</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -10344,19 +10344,19 @@
         <v>262210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>254097</v>
+        <v>254719</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>265873</v>
+        <v>265878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9815819529393043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9512114583011742</v>
+        <v>0.9535408747227838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9952956977932521</v>
+        <v>0.9953148247974826</v>
       </c>
     </row>
     <row r="8">
@@ -10711,19 +10711,19 @@
         <v>3521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7550</v>
+        <v>7735</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0187975086010567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006012793485881842</v>
+        <v>0.006145078924245598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04030700862757545</v>
+        <v>0.0412953742479962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4018</v>
+        <v>3230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01198812745145931</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04503724330052858</v>
+        <v>0.03620530813553414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -10753,19 +10753,19 @@
         <v>4590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2034</v>
+        <v>1698</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9350</v>
+        <v>9317</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01660069966865722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007353929095663212</v>
+        <v>0.006141608282023229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0338132607515966</v>
+        <v>0.03369347703566652</v>
       </c>
     </row>
     <row r="15">
@@ -10782,19 +10782,19 @@
         <v>3209</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7928</v>
+        <v>7493</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01713092251528149</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004626369467021274</v>
+        <v>0.004662015960113372</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04232745268609556</v>
+        <v>0.04000209247140456</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -10816,19 +10816,19 @@
         <v>3209</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>7754</v>
+        <v>7707</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01160422885912759</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003070677914145498</v>
+        <v>0.003122839602858389</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02804189663187472</v>
+        <v>0.02787157186822947</v>
       </c>
     </row>
     <row r="16">
@@ -10845,19 +10845,19 @@
         <v>4343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1226</v>
+        <v>1401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12314</v>
+        <v>12004</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02318590395464799</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006546235082042348</v>
+        <v>0.007481407862385408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06574020623143371</v>
+        <v>0.06408325126035139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -10869,16 +10869,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3160</v>
+        <v>3509</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.007215556326816583</v>
+        <v>0.007215556326816586</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03542575857679373</v>
+        <v>0.03933550631843708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -10887,19 +10887,19 @@
         <v>4987</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1764</v>
+        <v>1712</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11796</v>
+        <v>12139</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01803362923957799</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006377481021236163</v>
+        <v>0.006192763627595903</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04265694241748534</v>
+        <v>0.0438978826595304</v>
       </c>
     </row>
     <row r="17">
@@ -10916,19 +10916,19 @@
         <v>176240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>169437</v>
+        <v>168853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181324</v>
+        <v>181321</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9408856649290137</v>
+        <v>0.9408856649290138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9045677291715281</v>
+        <v>0.9014480638939457</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9680263233168723</v>
+        <v>0.9680125241095208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -10937,19 +10937,19 @@
         <v>87498</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83986</v>
+        <v>84375</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88752</v>
+        <v>88748</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9807963162217241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9414293941281709</v>
+        <v>0.9457908769070971</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9948524661097811</v>
+        <v>0.9948059353297805</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>321</v>
@@ -10958,19 +10958,19 @@
         <v>263737</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>256074</v>
+        <v>255600</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>268919</v>
+        <v>268934</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9537614422326371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9260507980974209</v>
+        <v>0.924335990539387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9724999249179009</v>
+        <v>0.9725565946611489</v>
       </c>
     </row>
     <row r="18">
@@ -11065,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5450</v>
+        <v>5091</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.00775622346710435</v>
+        <v>0.007756223467104348</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02689097904247349</v>
+        <v>0.02511930674049305</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00707498266984749</v>
@@ -11095,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -11104,19 +11104,19 @@
         <v>2551</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6820</v>
+        <v>6381</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.007479814039839439</v>
+        <v>0.007479814039839438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002162282772184979</v>
+        <v>0.001964764193281867</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01999796336634958</v>
+        <v>0.01871046413218053</v>
       </c>
     </row>
     <row r="20">
@@ -11183,16 +11183,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4419</v>
+        <v>4592</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.004287453420448534</v>
+        <v>0.004287453420448533</v>
       </c>
       <c r="H21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02180550753628608</v>
+        <v>0.02265927020979925</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4260</v>
+        <v>5055</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.002547844534511066</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01249220955743371</v>
+        <v>0.01482275399531896</v>
       </c>
     </row>
     <row r="22">
@@ -11243,19 +11243,19 @@
         <v>200212</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>196178</v>
+        <v>195961</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202011</v>
+        <v>201942</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9879563231124472</v>
+        <v>0.9879563231124471</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9680509450045585</v>
+        <v>0.9669767647386529</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9968322938693048</v>
+        <v>0.9964897530301214</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -11264,7 +11264,7 @@
         <v>137387</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135126</v>
+        <v>134784</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>138366</v>
@@ -11273,7 +11273,7 @@
         <v>0.9929250173301526</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9765835942948946</v>
+        <v>0.9741141093474305</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -11285,19 +11285,19 @@
         <v>337599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>332615</v>
+        <v>332577</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>339921</v>
+        <v>339900</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9899723414256495</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9753569987028453</v>
+        <v>0.9752437126926389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9967809242341481</v>
+        <v>0.9967200970885554</v>
       </c>
     </row>
     <row r="23">
@@ -11405,16 +11405,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01043608217614646</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="25">
@@ -11559,7 +11559,7 @@
         <v>10376</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8388</v>
+        <v>8653</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>10845</v>
@@ -11568,7 +11568,7 @@
         <v>0.9567126343998554</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7734044365956327</v>
+        <v>0.7978855759162851</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -11580,16 +11580,16 @@
         <v>44513</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>42594</v>
+        <v>42150</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>44982</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.9895639178238534</v>
+        <v>0.9895639178238536</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9469127490655411</v>
+        <v>0.9370352286524489</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -11684,19 +11684,19 @@
         <v>2900</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6865</v>
+        <v>7584</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01779341834490675</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004938623316895345</v>
+        <v>0.004840446544671266</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04212482633730503</v>
+        <v>0.04653436265333573</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -11705,19 +11705,19 @@
         <v>2231</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02272334166512192</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -11726,19 +11726,19 @@
         <v>5131</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2033</v>
+        <v>2073</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10405</v>
+        <v>10234</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01964697644747438</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007783710021133856</v>
+        <v>0.007936495232280374</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03984115752139494</v>
+        <v>0.03918469970606087</v>
       </c>
     </row>
     <row r="30">
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3529</v>
+        <v>3317</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00361750885032405</v>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02165455976798281</v>
+        <v>0.02035460744652075</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3301</v>
+        <v>2738</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002257393813010324</v>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01263989580348849</v>
+        <v>0.01048536898016822</v>
       </c>
     </row>
     <row r="31">
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4376</v>
+        <v>3924</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.005003213612183203</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02685140194412869</v>
+        <v>0.02407532511498155</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4143</v>
+        <v>4239</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003122099743391003</v>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01586477121021068</v>
+        <v>0.01623186232222208</v>
       </c>
     </row>
     <row r="32">
@@ -11881,19 +11881,19 @@
         <v>158668</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>154291</v>
+        <v>153762</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>161339</v>
+        <v>161151</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.973585859192586</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9467278536721446</v>
+        <v>0.9434799039225463</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9899748776478949</v>
+        <v>0.9888193133736762</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>145</v>
@@ -11902,19 +11902,19 @@
         <v>95963</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>91907</v>
+        <v>91987</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>97646</v>
+        <v>97647</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9772766583348782</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9359735691082509</v>
+        <v>0.9367848669423112</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9944185495999649</v>
+        <v>0.9944251450328244</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>350</v>
@@ -11923,19 +11923,19 @@
         <v>254631</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>248458</v>
+        <v>248668</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>258125</v>
+        <v>258105</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9749735299961243</v>
+        <v>0.9749735299961244</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9513366177291772</v>
+        <v>0.9521425959953719</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9883520815917204</v>
+        <v>0.9882755084641917</v>
       </c>
     </row>
     <row r="33">
@@ -12027,19 +12027,19 @@
         <v>2820</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8336</v>
+        <v>7801</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.008063187162448346</v>
+        <v>0.008063187162448348</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00223617473760012</v>
+        <v>0.00225625566361794</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02383604020635664</v>
+        <v>0.02230649065336025</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -12048,19 +12048,19 @@
         <v>6869</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2111</v>
+        <v>2254</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16841</v>
+        <v>19801</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0293936773421603</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009031987680933957</v>
+        <v>0.009646432240460081</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07206751458843992</v>
+        <v>0.084736892272211</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -12069,19 +12069,19 @@
         <v>9688</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3611</v>
+        <v>3953</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20936</v>
+        <v>19995</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01660730904589525</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006190357137606791</v>
+        <v>0.006775494411313828</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03588767776271841</v>
+        <v>0.0342747858407936</v>
       </c>
     </row>
     <row r="35">
@@ -12098,19 +12098,19 @@
         <v>5219</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1861</v>
+        <v>1940</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11522</v>
+        <v>11622</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01492261446557187</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005321841592911378</v>
+        <v>0.005548876834284941</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03294911054066478</v>
+        <v>0.03323372410042257</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -12119,19 +12119,19 @@
         <v>2136</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5985</v>
+        <v>6250</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009138697089894293</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002957628183244727</v>
+        <v>0.002969036579233991</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02561066099755124</v>
+        <v>0.02674712650952551</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -12140,19 +12140,19 @@
         <v>7354</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3434</v>
+        <v>3303</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14734</v>
+        <v>15132</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01260581374485618</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005886565640893441</v>
+        <v>0.005661771296782903</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02525590578403559</v>
+        <v>0.02593747750599216</v>
       </c>
     </row>
     <row r="36">
@@ -12169,19 +12169,19 @@
         <v>6455</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2138</v>
+        <v>2096</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16994</v>
+        <v>15362</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0184587340580262</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006114247386027748</v>
+        <v>0.005994428207022521</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04859515101688033</v>
+        <v>0.04392830783665351</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3787</v>
+        <v>3550</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00294893859906354</v>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01620422935840193</v>
+        <v>0.0151913386891762</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -12211,19 +12211,19 @@
         <v>7144</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2720</v>
+        <v>2748</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16911</v>
+        <v>16696</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01224614439542437</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004662988191176515</v>
+        <v>0.004709878335215426</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02898842230918885</v>
+        <v>0.02861884215252855</v>
       </c>
     </row>
     <row r="37">
@@ -12240,19 +12240,19 @@
         <v>335212</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>324464</v>
+        <v>325209</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>341726</v>
+        <v>341952</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9585554643139536</v>
+        <v>0.9585554643139537</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.927823446847214</v>
+        <v>0.929953188685522</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9771844100335901</v>
+        <v>0.9778290393704812</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>277</v>
@@ -12261,19 +12261,19 @@
         <v>223987</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>212784</v>
+        <v>210773</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>229289</v>
+        <v>229256</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9585186869688819</v>
+        <v>0.9585186869688818</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9105767810457254</v>
+        <v>0.9019745877583322</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9812112533850089</v>
+        <v>0.9810666743428519</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>555</v>
@@ -12282,19 +12282,19 @@
         <v>559198</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>545931</v>
+        <v>546713</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>568438</v>
+        <v>568070</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9585407328138241</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9357983825043833</v>
+        <v>0.9371389831615561</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9743788231984593</v>
+        <v>0.9737474083798788</v>
       </c>
     </row>
     <row r="38">
@@ -12389,16 +12389,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6593</v>
+        <v>6482</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.005994263329387435</v>
+        <v>0.005994263329387437</v>
       </c>
       <c r="H39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02105084329179719</v>
+        <v>0.02069569283659965</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>6488</v>
+        <v>7444</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.004392939954307412</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01518233310791799</v>
+        <v>0.01741850102359437</v>
       </c>
     </row>
     <row r="40">
@@ -12452,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5793</v>
+        <v>6908</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003643460826509072</v>
@@ -12461,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01849694488502195</v>
+        <v>0.02205605380927704</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4096</v>
+        <v>4064</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007046006090430343</v>
@@ -12482,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03587333527622548</v>
+        <v>0.03559659190862793</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6320</v>
+        <v>6623</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004552425776242396</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01478919731586403</v>
+        <v>0.01549642501915252</v>
       </c>
     </row>
     <row r="41">
@@ -12523,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4884</v>
+        <v>4930</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003069062081388199</v>
@@ -12532,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01559323934250488</v>
+        <v>0.01574261126927447</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -12544,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4389</v>
+        <v>4179</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006622846718312744</v>
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03844557934847619</v>
+        <v>0.03660739991762392</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5573</v>
+        <v>6282</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004018429517618115</v>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0130409595747485</v>
+        <v>0.01469971026111642</v>
       </c>
     </row>
     <row r="42">
@@ -12591,19 +12591,19 @@
         <v>309214</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>304188</v>
+        <v>304116</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>312141</v>
+        <v>312215</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.9872932137627151</v>
+        <v>0.9872932137627153</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9712447574606384</v>
+        <v>0.9710160699716174</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9966392758775907</v>
+        <v>0.9968753007043907</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>134</v>
@@ -12612,7 +12612,7 @@
         <v>112605</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>108625</v>
+        <v>109132</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>114166</v>
@@ -12621,7 +12621,7 @@
         <v>0.9863311471912569</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9514625970195688</v>
+        <v>0.9559067454907277</v>
       </c>
       <c r="P42" s="6" t="n">
         <v>1</v>
@@ -12633,19 +12633,19 @@
         <v>421821</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>415962</v>
+        <v>415900</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>425154</v>
+        <v>425255</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9870362047518322</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9733271072899702</v>
+        <v>0.9731809324900843</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9948357453465092</v>
+        <v>0.9950729459861549</v>
       </c>
     </row>
     <row r="43">
@@ -12737,19 +12737,19 @@
         <v>12690</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>7274</v>
+        <v>7252</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>20718</v>
+        <v>20499</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.007583675239003757</v>
+        <v>0.007583675239003758</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004347051548174151</v>
+        <v>0.004333775326888692</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0123813388976235</v>
+        <v>0.01225075579074181</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>12</v>
@@ -12758,19 +12758,19 @@
         <v>11618</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5606</v>
+        <v>6112</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>22222</v>
+        <v>22998</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01296164085076162</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006254257330474315</v>
+        <v>0.006819149165463719</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02479231465962118</v>
+        <v>0.02565818854489864</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>28</v>
@@ -12779,19 +12779,19 @@
         <v>24308</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>16501</v>
+        <v>15613</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>36557</v>
+        <v>35794</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.00945959198876954</v>
+        <v>0.009459591988769542</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006421488823637014</v>
+        <v>0.006076113459228827</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01422651616738769</v>
+        <v>0.01392972000380284</v>
       </c>
     </row>
     <row r="45">
@@ -12808,19 +12808,19 @@
         <v>11394</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>6357</v>
+        <v>6043</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>19256</v>
+        <v>19655</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.006809359191291251</v>
+        <v>0.006809359191291252</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.003798915966969741</v>
+        <v>0.003611610868838536</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01150807181219634</v>
+        <v>0.01174615749680129</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>4</v>
@@ -12829,19 +12829,19 @@
         <v>2940</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>7411</v>
+        <v>7252</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.003280000103897582</v>
+        <v>0.003280000103897581</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0007973628380861472</v>
+        <v>0.000804430991265095</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.008267734890592541</v>
+        <v>0.008091084793568576</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>16</v>
@@ -12850,19 +12850,19 @@
         <v>14334</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>8524</v>
+        <v>8386</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>23941</v>
+        <v>24066</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.005578264702047061</v>
+        <v>0.005578264702047062</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.003317062020272469</v>
+        <v>0.003263322010862855</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.009317021844267737</v>
+        <v>0.009365646187372989</v>
       </c>
     </row>
     <row r="46">
@@ -12879,19 +12879,19 @@
         <v>17127</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>10009</v>
+        <v>9336</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>30996</v>
+        <v>27965</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01023574298234086</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005981819954717531</v>
+        <v>0.005579110122777054</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01852412357664669</v>
+        <v>0.01671272722767638</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -12900,19 +12900,19 @@
         <v>2089</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>5499</v>
+        <v>5693</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.002330534012467659</v>
+        <v>0.002330534012467658</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0007234267261411294</v>
+        <v>0.000718526151848021</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.006135570287556634</v>
+        <v>0.006351891629259043</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>18</v>
@@ -12921,19 +12921,19 @@
         <v>19216</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>11912</v>
+        <v>11164</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>32883</v>
+        <v>31358</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.007478285053535583</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004635571463510941</v>
+        <v>0.004344626986571046</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01279678314620767</v>
+        <v>0.01220325970742568</v>
       </c>
     </row>
     <row r="47">
@@ -12950,19 +12950,19 @@
         <v>1632092</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1617434</v>
+        <v>1617282</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1644176</v>
+        <v>1643754</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.975371222587364</v>
+        <v>0.9753712225873641</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9666116923703619</v>
+        <v>0.966520892527919</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9825931246098332</v>
+        <v>0.9823409114690701</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1174</v>
@@ -12971,19 +12971,19 @@
         <v>879679</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>868260</v>
+        <v>869651</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>886749</v>
+        <v>886764</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.981427825032873</v>
+        <v>0.9814278250328731</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9686876675327992</v>
+        <v>0.9702393564861163</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9893149816012032</v>
+        <v>0.9893323527754954</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2712</v>
@@ -12992,19 +12992,19 @@
         <v>2511770</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2494053</v>
+        <v>2494224</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2525098</v>
+        <v>2526113</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.9774838582556477</v>
+        <v>0.9774838582556478</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9705892443811093</v>
+        <v>0.9706556038814702</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9826706618018271</v>
+        <v>0.9830657682657574</v>
       </c>
     </row>
     <row r="48">
